--- a/VALOR/Importaciones por Lugar de Salida 2016 - Mensual - Editado.xlsx
+++ b/VALOR/Importaciones por Lugar de Salida 2016 - Mensual - Editado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aseba\Desktop\DATA Exterior\Importaciones\CIF\2016\Editado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\VALOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46D204C4-E64D-43F8-A96A-6A62E86489D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6C72D4-33FC-469F-B38C-027287CCF4D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Impo Puerto Monto CIF 2016" sheetId="2" r:id="rId1"/>
@@ -364,7 +364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -423,11 +423,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -460,6 +556,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -469,27 +566,430 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="1" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -500,6 +1000,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92AEA04E-AC53-4EED-8C44-14D92EA02078}" name="imp_salida_valor_2016" displayName="imp_salida_valor_2016" ref="A1:M61" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:M61" xr:uid="{BC49CBD5-CA99-4C99-95D9-396863E0A6D2}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{DDB8890B-E5B6-4DCA-B803-993E589466DB}" name="Lugar de Ingreso (Puerto-Aeropuerto-Avanzada)" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{24C5DFFA-0A06-445E-9C8C-D0AEE8B051C1}" name="Enero - 2016" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{AD4F0300-9CA9-4FCB-BFC9-8E98E3AA62CA}" name="Febrero - 2016" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{1C7AFB4A-211A-48D8-A1FA-E5EB533CCE68}" name="Marzo - 2016" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{7F4C3878-618E-439B-9FC0-B636839D55D8}" name="Abril - 2016" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{F64357D5-D700-43A3-8BD4-BCD4D24B925B}" name="Mayo - 2016" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{6E90693A-8A1A-4AB1-A71C-8C7259C11CDA}" name="Junio - 2016" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{20E4DA95-36AC-479F-B77A-679ECFAF284F}" name="Julio - 2016" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{E0C31366-C5C9-4105-B24D-23C97D86CC27}" name="Agosto - 2016" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{E22CECDA-168C-46AD-A8AA-AC067D019C8C}" name="Septiembre - 2016" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{1ADEC8F4-4E46-4AE2-9F72-2D287CB8BB43}" name="Octubre - 2016" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{4A6D05D1-CA22-403E-AA10-4E8157936A02}" name="Noviembre - 2016" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{08C26434-C28C-418F-B712-199116A53C1A}" name="Diciembre - 2016" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -791,41 +1313,41 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="7"/>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
       <c r="O2" s="7"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="17" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18" t="s">
         <v>77</v>
       </c>
     </row>
@@ -869,7 +1391,7 @@
       <c r="N4" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="O4" s="18"/>
+      <c r="O4" s="19"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
@@ -3590,7 +4112,7 @@
   <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection sqref="A1:M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3599,2511 +4121,2511 @@
     <col min="2" max="6" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" style="3" customWidth="1"/>
     <col min="8" max="9" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" style="3" customWidth="1"/>
     <col min="11" max="11" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.77734375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" style="3" customWidth="1"/>
     <col min="14" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="26" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24">
-        <v>0</v>
-      </c>
-      <c r="C2" s="24">
-        <v>0</v>
-      </c>
-      <c r="D2" s="24">
-        <v>0</v>
-      </c>
-      <c r="E2" s="24">
-        <v>0</v>
-      </c>
-      <c r="F2" s="24">
-        <v>0</v>
-      </c>
-      <c r="G2" s="24">
-        <v>0</v>
-      </c>
-      <c r="H2" s="24">
+      <c r="B2" s="16">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0</v>
+      </c>
+      <c r="F2" s="16">
+        <v>0</v>
+      </c>
+      <c r="G2" s="16">
+        <v>0</v>
+      </c>
+      <c r="H2" s="16">
         <v>1038.8599999999999</v>
       </c>
-      <c r="I2" s="24">
-        <v>0</v>
-      </c>
-      <c r="J2" s="24">
-        <v>0</v>
-      </c>
-      <c r="K2" s="24">
-        <v>0</v>
-      </c>
-      <c r="L2" s="24">
-        <v>0</v>
-      </c>
-      <c r="M2" s="24">
+      <c r="I2" s="16">
+        <v>0</v>
+      </c>
+      <c r="J2" s="16">
+        <v>0</v>
+      </c>
+      <c r="K2" s="16">
+        <v>0</v>
+      </c>
+      <c r="L2" s="16">
+        <v>0</v>
+      </c>
+      <c r="M2" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="16">
         <v>545695358.32999754</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="16">
         <v>613447464.35000134</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="16">
         <v>694552406.61999929</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="16">
         <v>647303851.49999881</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="16">
         <v>673863161.04000092</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="16">
         <v>674548677.48000276</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="16">
         <v>642115623.76999366</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="16">
         <v>671640213.75999904</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="16">
         <v>662491167.54999721</v>
       </c>
-      <c r="K3" s="24">
+      <c r="K3" s="16">
         <v>658119218.49000049</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="16">
         <v>787405174.04000258</v>
       </c>
-      <c r="M3" s="24">
+      <c r="M3" s="21">
         <v>698329018.73999691</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="24">
-        <v>0</v>
-      </c>
-      <c r="C4" s="24">
-        <v>0</v>
-      </c>
-      <c r="D4" s="24">
-        <v>0</v>
-      </c>
-      <c r="E4" s="24">
-        <v>0</v>
-      </c>
-      <c r="F4" s="24">
-        <v>0</v>
-      </c>
-      <c r="G4" s="24">
+      <c r="B4" s="16">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0</v>
+      </c>
+      <c r="G4" s="16">
         <v>281.02</v>
       </c>
-      <c r="H4" s="24">
-        <v>0</v>
-      </c>
-      <c r="I4" s="24">
-        <v>0</v>
-      </c>
-      <c r="J4" s="24">
-        <v>0</v>
-      </c>
-      <c r="K4" s="24">
+      <c r="H4" s="16">
+        <v>0</v>
+      </c>
+      <c r="I4" s="16">
+        <v>0</v>
+      </c>
+      <c r="J4" s="16">
+        <v>0</v>
+      </c>
+      <c r="K4" s="16">
         <v>38790.430000000008</v>
       </c>
-      <c r="L4" s="24">
-        <v>0</v>
-      </c>
-      <c r="M4" s="24">
+      <c r="L4" s="16">
+        <v>0</v>
+      </c>
+      <c r="M4" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="16">
         <v>134585.82999999999</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="16">
         <v>159144.11999999997</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="16">
         <v>281162.40000000008</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="16">
         <v>237604.19</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="16">
         <v>231835.39999999997</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="16">
         <v>330415.57</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="16">
         <v>133030.87999999998</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="16">
         <v>229116.91999999998</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="16">
         <v>163419.01999999999</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="16">
         <v>202160.11000000002</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="16">
         <v>47751.78</v>
       </c>
-      <c r="M5" s="24">
+      <c r="M5" s="21">
         <v>979743.57000000007</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="16">
         <v>13425.69</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="16">
         <v>2874.21</v>
       </c>
-      <c r="D6" s="24">
-        <v>0</v>
-      </c>
-      <c r="E6" s="24">
+      <c r="D6" s="16">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16">
         <v>119.31</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="16">
         <v>459.44</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="16">
         <v>8725.7799999999988</v>
       </c>
-      <c r="H6" s="24">
-        <v>0</v>
-      </c>
-      <c r="I6" s="24">
-        <v>0</v>
-      </c>
-      <c r="J6" s="24">
+      <c r="H6" s="16">
+        <v>0</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
         <v>4156.21</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="16">
         <v>9882.98</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="16">
         <v>5474125.9300000006</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="21">
         <v>25772.14</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="16">
         <v>1548.44</v>
       </c>
-      <c r="C7" s="24">
-        <v>0</v>
-      </c>
-      <c r="D7" s="24">
+      <c r="C7" s="16">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16">
         <v>1696.5</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="16">
         <v>615.20000000000005</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="16">
         <v>60482.16</v>
       </c>
-      <c r="G7" s="24">
-        <v>0</v>
-      </c>
-      <c r="H7" s="24">
-        <v>0</v>
-      </c>
-      <c r="I7" s="24">
+      <c r="G7" s="16">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0</v>
+      </c>
+      <c r="I7" s="16">
         <v>2373.71</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="16">
         <v>6866.49</v>
       </c>
-      <c r="K7" s="24">
-        <v>0</v>
-      </c>
-      <c r="L7" s="24">
-        <v>0</v>
-      </c>
-      <c r="M7" s="24">
+      <c r="K7" s="16">
+        <v>0</v>
+      </c>
+      <c r="L7" s="16">
+        <v>0</v>
+      </c>
+      <c r="M7" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="16">
         <v>82101739.020000055</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="16">
         <v>57110548.610000022</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="16">
         <v>64723160.43000003</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="16">
         <v>103850749.20999999</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="16">
         <v>72748784.88000001</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="16">
         <v>48000725.009999998</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="16">
         <v>50696308.57</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="16">
         <v>36901510.500000007</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="16">
         <v>60329172.919999965</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="16">
         <v>72152463.589999974</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="16">
         <v>88076672.040000021</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="21">
         <v>80466497.150000006</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="16">
         <v>10808489.710000014</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="16">
         <v>11557035.259999992</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="16">
         <v>17282682.259999998</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="16">
         <v>18078152.409999996</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="16">
         <v>18509861.379999999</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="16">
         <v>16394583.820000008</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="16">
         <v>18275010.160000004</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="16">
         <v>17994185.90000001</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="16">
         <v>13179102.489999982</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="16">
         <v>16261246.010000009</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="16">
         <v>22505375.739999983</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="21">
         <v>21882796.740000017</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="24">
-        <v>0</v>
-      </c>
-      <c r="C10" s="24">
-        <v>0</v>
-      </c>
-      <c r="D10" s="24">
-        <v>0</v>
-      </c>
-      <c r="E10" s="24">
-        <v>0</v>
-      </c>
-      <c r="F10" s="24">
-        <v>0</v>
-      </c>
-      <c r="G10" s="24">
-        <v>0</v>
-      </c>
-      <c r="H10" s="24">
+      <c r="B10" s="16">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
         <v>8923.26</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="16">
         <v>21789.23</v>
       </c>
-      <c r="J10" s="24">
-        <v>0</v>
-      </c>
-      <c r="K10" s="24">
-        <v>0</v>
-      </c>
-      <c r="L10" s="24">
-        <v>0</v>
-      </c>
-      <c r="M10" s="24">
+      <c r="J10" s="16">
+        <v>0</v>
+      </c>
+      <c r="K10" s="16">
+        <v>0</v>
+      </c>
+      <c r="L10" s="16">
+        <v>0</v>
+      </c>
+      <c r="M10" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="24">
-        <v>0</v>
-      </c>
-      <c r="C11" s="24">
-        <v>0</v>
-      </c>
-      <c r="D11" s="24">
+      <c r="B11" s="16">
+        <v>0</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16">
         <v>5704</v>
       </c>
-      <c r="E11" s="24">
-        <v>0</v>
-      </c>
-      <c r="F11" s="24">
-        <v>0</v>
-      </c>
-      <c r="G11" s="24">
-        <v>0</v>
-      </c>
-      <c r="H11" s="24">
-        <v>0</v>
-      </c>
-      <c r="I11" s="24">
-        <v>0</v>
-      </c>
-      <c r="J11" s="24">
-        <v>0</v>
-      </c>
-      <c r="K11" s="24">
-        <v>0</v>
-      </c>
-      <c r="L11" s="24">
-        <v>0</v>
-      </c>
-      <c r="M11" s="24">
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0</v>
+      </c>
+      <c r="I11" s="16">
+        <v>0</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0</v>
+      </c>
+      <c r="K11" s="16">
+        <v>0</v>
+      </c>
+      <c r="L11" s="16">
+        <v>0</v>
+      </c>
+      <c r="M11" s="21">
         <v>59850</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="16">
         <v>2485683.58</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="16">
         <v>2056877.77</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="16">
         <v>11328545.51</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="16">
         <v>2569016.71</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="16">
         <v>7371218.0200000005</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="16">
         <v>7958938.8799999999</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="16">
         <v>6256643.5499999998</v>
       </c>
-      <c r="I12" s="24">
-        <v>0</v>
-      </c>
-      <c r="J12" s="24">
+      <c r="I12" s="16">
+        <v>0</v>
+      </c>
+      <c r="J12" s="16">
         <v>2409641.64</v>
       </c>
-      <c r="K12" s="24">
-        <v>0</v>
-      </c>
-      <c r="L12" s="24">
+      <c r="K12" s="16">
+        <v>0</v>
+      </c>
+      <c r="L12" s="16">
         <v>2427876.9900000002</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="16">
         <v>4331098.45</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="16">
         <v>9578713.9700000007</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="16">
         <v>10514864.560000001</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="16">
         <v>3560478.62</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="16">
         <v>10874743.810000001</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="16">
         <v>12447180</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="16">
         <v>8472806.5299999993</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="16">
         <v>9598736.0700000003</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="16">
         <v>10748738.689999999</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="16">
         <v>9858521.629999999</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="16">
         <v>9216214.7300000004</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M13" s="21">
         <v>14338932.24</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="16">
         <v>1367110.4900000002</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="16">
         <v>2375151.8099999991</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="16">
         <v>1416854.3900000001</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="16">
         <v>1585943.11</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="16">
         <v>7679956.0300000003</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="16">
         <v>4068733.5700000008</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="16">
         <v>3245580.0600000005</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="16">
         <v>1715752.0100000002</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="16">
         <v>1491263.45</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="16">
         <v>1882450.43</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="16">
         <v>1863152.1000000006</v>
       </c>
-      <c r="M14" s="24">
+      <c r="M14" s="21">
         <v>1523669.3799999997</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="16">
         <v>393933.62</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="16">
         <v>376518.44</v>
       </c>
-      <c r="D15" s="24">
-        <v>0</v>
-      </c>
-      <c r="E15" s="24">
+      <c r="D15" s="16">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
         <v>409869.53</v>
       </c>
-      <c r="F15" s="24">
-        <v>0</v>
-      </c>
-      <c r="G15" s="24">
-        <v>0</v>
-      </c>
-      <c r="H15" s="24">
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+      <c r="G15" s="16">
+        <v>0</v>
+      </c>
+      <c r="H15" s="16">
         <v>343719.77</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="16">
         <v>287473.88</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="16">
         <v>30920.69</v>
       </c>
-      <c r="K15" s="24">
-        <v>0</v>
-      </c>
-      <c r="L15" s="24">
-        <v>0</v>
-      </c>
-      <c r="M15" s="24">
+      <c r="K15" s="16">
+        <v>0</v>
+      </c>
+      <c r="L15" s="16">
+        <v>0</v>
+      </c>
+      <c r="M15" s="21">
         <v>38282.449999999997</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="16">
         <v>225083.73</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="16">
         <v>304648.97000000003</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="16">
         <v>361449.98000000004</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="16">
         <v>426189.10000000003</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="16">
         <v>504255.31</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="16">
         <v>295953.03000000003</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="16">
         <v>133657.09</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="16">
         <v>25029.479999999996</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="16">
         <v>163561.5</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="16">
         <v>235179.64</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="16">
         <v>675082.31</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="21">
         <v>284742.63</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="16">
         <v>1727332</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="16">
         <v>1393857.15</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="16">
         <v>1682499.45</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="16">
         <v>2448889.35</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="16">
         <v>2453329.4900000002</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="16">
         <v>1411054.23</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="16">
         <v>4965179.66</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="16">
         <v>2144162.75</v>
       </c>
-      <c r="J17" s="24">
-        <v>0</v>
-      </c>
-      <c r="K17" s="24">
+      <c r="J17" s="16">
+        <v>0</v>
+      </c>
+      <c r="K17" s="16">
         <v>4139075.43</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="16">
         <v>1363645.69</v>
       </c>
-      <c r="M17" s="24">
+      <c r="M17" s="21">
         <v>3452893.2800000003</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="24">
-        <v>0</v>
-      </c>
-      <c r="C18" s="24">
+      <c r="B18" s="16">
+        <v>0</v>
+      </c>
+      <c r="C18" s="16">
         <v>3038.4</v>
       </c>
-      <c r="D18" s="24">
-        <v>0</v>
-      </c>
-      <c r="E18" s="24">
-        <v>0</v>
-      </c>
-      <c r="F18" s="24">
-        <v>0</v>
-      </c>
-      <c r="G18" s="24">
-        <v>0</v>
-      </c>
-      <c r="H18" s="24">
-        <v>0</v>
-      </c>
-      <c r="I18" s="24">
+      <c r="D18" s="16">
+        <v>0</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0</v>
+      </c>
+      <c r="G18" s="16">
+        <v>0</v>
+      </c>
+      <c r="H18" s="16">
+        <v>0</v>
+      </c>
+      <c r="I18" s="16">
         <v>43633.74</v>
       </c>
-      <c r="J18" s="24">
-        <v>0</v>
-      </c>
-      <c r="K18" s="24">
-        <v>0</v>
-      </c>
-      <c r="L18" s="24">
-        <v>0</v>
-      </c>
-      <c r="M18" s="24">
+      <c r="J18" s="16">
+        <v>0</v>
+      </c>
+      <c r="K18" s="16">
+        <v>0</v>
+      </c>
+      <c r="L18" s="16">
+        <v>0</v>
+      </c>
+      <c r="M18" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="16">
         <v>95337.170000000013</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="16">
         <v>138479.73000000001</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="16">
         <v>66640.33</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="16">
         <v>479059.11</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="16">
         <v>141289.27000000002</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="16">
         <v>11239.82</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="16">
         <v>10829.38</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="16">
         <v>130354.63</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J19" s="16">
         <v>68385.950000000012</v>
       </c>
-      <c r="K19" s="24">
+      <c r="K19" s="16">
         <v>52915.05</v>
       </c>
-      <c r="L19" s="24">
+      <c r="L19" s="16">
         <v>34334.730000000003</v>
       </c>
-      <c r="M19" s="24">
+      <c r="M19" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="24">
-        <v>0</v>
-      </c>
-      <c r="C20" s="24">
-        <v>0</v>
-      </c>
-      <c r="D20" s="24">
-        <v>0</v>
-      </c>
-      <c r="E20" s="24">
-        <v>0</v>
-      </c>
-      <c r="F20" s="24">
+      <c r="B20" s="16">
+        <v>0</v>
+      </c>
+      <c r="C20" s="16">
+        <v>0</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0</v>
+      </c>
+      <c r="F20" s="16">
         <v>105259.7</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="16">
         <v>127848</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="16">
         <v>243080.24</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="16">
         <v>223818.72</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J20" s="16">
         <v>317409.52</v>
       </c>
-      <c r="K20" s="24">
+      <c r="K20" s="16">
         <v>94947.55</v>
       </c>
-      <c r="L20" s="24">
+      <c r="L20" s="16">
         <v>193887.4</v>
       </c>
-      <c r="M20" s="24">
+      <c r="M20" s="21">
         <v>50387.4</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="16">
         <v>154090.31</v>
       </c>
-      <c r="C21" s="24">
-        <v>0</v>
-      </c>
-      <c r="D21" s="24">
+      <c r="C21" s="16">
+        <v>0</v>
+      </c>
+      <c r="D21" s="16">
         <v>2300.0500000000002</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="16">
         <v>2547244.38</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="16">
         <v>1316583.97</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="16">
         <v>962655.46</v>
       </c>
-      <c r="H21" s="24">
-        <v>0</v>
-      </c>
-      <c r="I21" s="24">
-        <v>0</v>
-      </c>
-      <c r="J21" s="24">
+      <c r="H21" s="16">
+        <v>0</v>
+      </c>
+      <c r="I21" s="16">
+        <v>0</v>
+      </c>
+      <c r="J21" s="16">
         <v>2851041.7</v>
       </c>
-      <c r="K21" s="24">
-        <v>0</v>
-      </c>
-      <c r="L21" s="24">
-        <v>0</v>
-      </c>
-      <c r="M21" s="24">
+      <c r="K21" s="16">
+        <v>0</v>
+      </c>
+      <c r="L21" s="16">
+        <v>0</v>
+      </c>
+      <c r="M21" s="21">
         <v>2468166.9699999997</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="16">
         <v>46559740.889999993</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="16">
         <v>54708867.910000034</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="16">
         <v>74543777.460000008</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="16">
         <v>54473689.189999968</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="16">
         <v>48485350.890000008</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="16">
         <v>48632357.819999963</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="16">
         <v>60480147.539999954</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="16">
         <v>84388050.51000002</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="16">
         <v>64727671.640000008</v>
       </c>
-      <c r="K22" s="24">
+      <c r="K22" s="16">
         <v>80633330.320000067</v>
       </c>
-      <c r="L22" s="24">
+      <c r="L22" s="16">
         <v>64246129.61999999</v>
       </c>
-      <c r="M22" s="24">
+      <c r="M22" s="21">
         <v>47448493.929999962</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="24">
-        <v>0</v>
-      </c>
-      <c r="C23" s="24">
-        <v>0</v>
-      </c>
-      <c r="D23" s="24">
-        <v>0</v>
-      </c>
-      <c r="E23" s="24">
-        <v>0</v>
-      </c>
-      <c r="F23" s="24">
-        <v>0</v>
-      </c>
-      <c r="G23" s="24">
-        <v>0</v>
-      </c>
-      <c r="H23" s="24">
-        <v>0</v>
-      </c>
-      <c r="I23" s="24">
-        <v>0</v>
-      </c>
-      <c r="J23" s="24">
-        <v>0</v>
-      </c>
-      <c r="K23" s="24">
-        <v>0</v>
-      </c>
-      <c r="L23" s="24">
-        <v>0</v>
-      </c>
-      <c r="M23" s="24">
+      <c r="B23" s="16">
+        <v>0</v>
+      </c>
+      <c r="C23" s="16">
+        <v>0</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0</v>
+      </c>
+      <c r="E23" s="16">
+        <v>0</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0</v>
+      </c>
+      <c r="H23" s="16">
+        <v>0</v>
+      </c>
+      <c r="I23" s="16">
+        <v>0</v>
+      </c>
+      <c r="J23" s="16">
+        <v>0</v>
+      </c>
+      <c r="K23" s="16">
+        <v>0</v>
+      </c>
+      <c r="L23" s="16">
+        <v>0</v>
+      </c>
+      <c r="M23" s="21">
         <v>15192.98</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="24">
-        <v>0</v>
-      </c>
-      <c r="C24" s="24">
-        <v>0</v>
-      </c>
-      <c r="D24" s="24">
-        <v>0</v>
-      </c>
-      <c r="E24" s="24">
-        <v>0</v>
-      </c>
-      <c r="F24" s="24">
-        <v>0</v>
-      </c>
-      <c r="G24" s="24">
-        <v>0</v>
-      </c>
-      <c r="H24" s="24">
+      <c r="B24" s="16">
+        <v>0</v>
+      </c>
+      <c r="C24" s="16">
+        <v>0</v>
+      </c>
+      <c r="D24" s="16">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0</v>
+      </c>
+      <c r="H24" s="16">
         <v>64893.440000000002</v>
       </c>
-      <c r="I24" s="24">
-        <v>0</v>
-      </c>
-      <c r="J24" s="24">
+      <c r="I24" s="16">
+        <v>0</v>
+      </c>
+      <c r="J24" s="16">
         <v>59453.72</v>
       </c>
-      <c r="K24" s="24">
-        <v>0</v>
-      </c>
-      <c r="L24" s="24">
+      <c r="K24" s="16">
+        <v>0</v>
+      </c>
+      <c r="L24" s="16">
         <v>1658.5</v>
       </c>
-      <c r="M24" s="24">
+      <c r="M24" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="24">
-        <v>0</v>
-      </c>
-      <c r="C25" s="24">
-        <v>0</v>
-      </c>
-      <c r="D25" s="24">
-        <v>0</v>
-      </c>
-      <c r="E25" s="24">
-        <v>0</v>
-      </c>
-      <c r="F25" s="24">
-        <v>0</v>
-      </c>
-      <c r="G25" s="24">
-        <v>0</v>
-      </c>
-      <c r="H25" s="24">
-        <v>0</v>
-      </c>
-      <c r="I25" s="24">
-        <v>0</v>
-      </c>
-      <c r="J25" s="24">
-        <v>0</v>
-      </c>
-      <c r="K25" s="24">
-        <v>0</v>
-      </c>
-      <c r="L25" s="24">
-        <v>0</v>
-      </c>
-      <c r="M25" s="24">
+      <c r="B25" s="16">
+        <v>0</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0</v>
+      </c>
+      <c r="D25" s="16">
+        <v>0</v>
+      </c>
+      <c r="E25" s="16">
+        <v>0</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0</v>
+      </c>
+      <c r="G25" s="16">
+        <v>0</v>
+      </c>
+      <c r="H25" s="16">
+        <v>0</v>
+      </c>
+      <c r="I25" s="16">
+        <v>0</v>
+      </c>
+      <c r="J25" s="16">
+        <v>0</v>
+      </c>
+      <c r="K25" s="16">
+        <v>0</v>
+      </c>
+      <c r="L25" s="16">
+        <v>0</v>
+      </c>
+      <c r="M25" s="21">
         <v>43957.61</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B26" s="16">
         <v>1450771.85</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="16">
         <v>576788.78</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="16">
         <v>1334442.44</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="16">
         <v>1282042.78</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="16">
         <v>818408.85</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="16">
         <v>2097927.4300000002</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="16">
         <v>1622416.08</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I26" s="16">
         <v>1179343.1499999999</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J26" s="16">
         <v>1532530.78</v>
       </c>
-      <c r="K26" s="24">
+      <c r="K26" s="16">
         <v>817614.55</v>
       </c>
-      <c r="L26" s="24">
+      <c r="L26" s="16">
         <v>2452443.37</v>
       </c>
-      <c r="M26" s="24">
+      <c r="M26" s="21">
         <v>937903.95</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="24">
-        <v>0</v>
-      </c>
-      <c r="C27" s="24">
+      <c r="B27" s="16">
+        <v>0</v>
+      </c>
+      <c r="C27" s="16">
         <v>4598.6399999999994</v>
       </c>
-      <c r="D27" s="24">
-        <v>0</v>
-      </c>
-      <c r="E27" s="24">
-        <v>0</v>
-      </c>
-      <c r="F27" s="24">
-        <v>0</v>
-      </c>
-      <c r="G27" s="24">
-        <v>0</v>
-      </c>
-      <c r="H27" s="24">
-        <v>0</v>
-      </c>
-      <c r="I27" s="24">
-        <v>0</v>
-      </c>
-      <c r="J27" s="24">
-        <v>0</v>
-      </c>
-      <c r="K27" s="24">
-        <v>0</v>
-      </c>
-      <c r="L27" s="24">
-        <v>0</v>
-      </c>
-      <c r="M27" s="24">
+      <c r="D27" s="16">
+        <v>0</v>
+      </c>
+      <c r="E27" s="16">
+        <v>0</v>
+      </c>
+      <c r="F27" s="16">
+        <v>0</v>
+      </c>
+      <c r="G27" s="16">
+        <v>0</v>
+      </c>
+      <c r="H27" s="16">
+        <v>0</v>
+      </c>
+      <c r="I27" s="16">
+        <v>0</v>
+      </c>
+      <c r="J27" s="16">
+        <v>0</v>
+      </c>
+      <c r="K27" s="16">
+        <v>0</v>
+      </c>
+      <c r="L27" s="16">
+        <v>0</v>
+      </c>
+      <c r="M27" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B28" s="16">
         <v>6507734.5</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="16">
         <v>22627500.139999997</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="16">
         <v>11688542.58</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="16">
         <v>64047063.129999995</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="16">
         <v>51204526.11999999</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="16">
         <v>32134631.09</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="16">
         <v>21640834.210000001</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="16">
         <v>10354686.140000001</v>
       </c>
-      <c r="J28" s="24">
+      <c r="J28" s="16">
         <v>5855768.0499999998</v>
       </c>
-      <c r="K28" s="24">
+      <c r="K28" s="16">
         <v>8374401.1899999995</v>
       </c>
-      <c r="L28" s="24">
+      <c r="L28" s="16">
         <v>9289872.1900000013</v>
       </c>
-      <c r="M28" s="24">
+      <c r="M28" s="21">
         <v>9442254.6699999999</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="16">
         <v>256560.76</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="16">
         <v>202619.89</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="16">
         <v>208934.03</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="16">
         <v>73537.58</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="16">
         <v>29090.66</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="16">
         <v>21576.26</v>
       </c>
-      <c r="H29" s="24">
-        <v>0</v>
-      </c>
-      <c r="I29" s="24">
+      <c r="H29" s="16">
+        <v>0</v>
+      </c>
+      <c r="I29" s="16">
         <v>7133.94</v>
       </c>
-      <c r="J29" s="24">
+      <c r="J29" s="16">
         <v>178081.41</v>
       </c>
-      <c r="K29" s="24">
+      <c r="K29" s="16">
         <v>213769</v>
       </c>
-      <c r="L29" s="24">
+      <c r="L29" s="16">
         <v>212406.97</v>
       </c>
-      <c r="M29" s="24">
+      <c r="M29" s="21">
         <v>184182.18</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="24">
-        <v>0</v>
-      </c>
-      <c r="C30" s="24">
-        <v>0</v>
-      </c>
-      <c r="D30" s="24">
-        <v>0</v>
-      </c>
-      <c r="E30" s="24">
-        <v>0</v>
-      </c>
-      <c r="F30" s="24">
-        <v>0</v>
-      </c>
-      <c r="G30" s="24">
-        <v>0</v>
-      </c>
-      <c r="H30" s="24">
-        <v>0</v>
-      </c>
-      <c r="I30" s="24">
-        <v>0</v>
-      </c>
-      <c r="J30" s="24">
-        <v>0</v>
-      </c>
-      <c r="K30" s="24">
+      <c r="B30" s="16">
+        <v>0</v>
+      </c>
+      <c r="C30" s="16">
+        <v>0</v>
+      </c>
+      <c r="D30" s="16">
+        <v>0</v>
+      </c>
+      <c r="E30" s="16">
+        <v>0</v>
+      </c>
+      <c r="F30" s="16">
+        <v>0</v>
+      </c>
+      <c r="G30" s="16">
+        <v>0</v>
+      </c>
+      <c r="H30" s="16">
+        <v>0</v>
+      </c>
+      <c r="I30" s="16">
+        <v>0</v>
+      </c>
+      <c r="J30" s="16">
+        <v>0</v>
+      </c>
+      <c r="K30" s="16">
         <v>6756.6299999999992</v>
       </c>
-      <c r="L30" s="24">
-        <v>0</v>
-      </c>
-      <c r="M30" s="24">
+      <c r="L30" s="16">
+        <v>0</v>
+      </c>
+      <c r="M30" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="24">
+      <c r="B31" s="16">
         <v>32912004.829999968</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="16">
         <v>20900405.469999962</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="16">
         <v>48390883.520000063</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="16">
         <v>39114087.830000028</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="16">
         <v>51058143.10999997</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="16">
         <v>33997379.860000029</v>
       </c>
-      <c r="H31" s="24">
+      <c r="H31" s="16">
         <v>36063608.910000019</v>
       </c>
-      <c r="I31" s="24">
+      <c r="I31" s="16">
         <v>39520225.509999983</v>
       </c>
-      <c r="J31" s="24">
+      <c r="J31" s="16">
         <v>34657202.949999958</v>
       </c>
-      <c r="K31" s="24">
+      <c r="K31" s="16">
         <v>45396017.089999989</v>
       </c>
-      <c r="L31" s="24">
+      <c r="L31" s="16">
         <v>53874977.64000003</v>
       </c>
-      <c r="M31" s="24">
+      <c r="M31" s="21">
         <v>43927562.57000006</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="24">
+      <c r="B32" s="16">
         <v>4986.96</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="16">
         <v>53351.360000000001</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="16">
         <v>16969.099999999999</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="16">
         <v>69790.489999999991</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="16">
         <v>25079.08</v>
       </c>
-      <c r="G32" s="24">
+      <c r="G32" s="16">
         <v>4993.9799999999996</v>
       </c>
-      <c r="H32" s="24">
+      <c r="H32" s="16">
         <v>20487.900000000001</v>
       </c>
-      <c r="I32" s="24">
+      <c r="I32" s="16">
         <v>28177.140000000003</v>
       </c>
-      <c r="J32" s="24">
+      <c r="J32" s="16">
         <v>38680.959999999999</v>
       </c>
-      <c r="K32" s="24">
-        <v>0</v>
-      </c>
-      <c r="L32" s="24">
+      <c r="K32" s="16">
+        <v>0</v>
+      </c>
+      <c r="L32" s="16">
         <v>46539.759999999995</v>
       </c>
-      <c r="M32" s="24">
+      <c r="M32" s="21">
         <v>86533.959999999992</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="24">
-        <v>0</v>
-      </c>
-      <c r="C33" s="24">
-        <v>0</v>
-      </c>
-      <c r="D33" s="24">
-        <v>0</v>
-      </c>
-      <c r="E33" s="24">
-        <v>0</v>
-      </c>
-      <c r="F33" s="24">
+      <c r="B33" s="16">
+        <v>0</v>
+      </c>
+      <c r="C33" s="16">
+        <v>0</v>
+      </c>
+      <c r="D33" s="16">
+        <v>0</v>
+      </c>
+      <c r="E33" s="16">
+        <v>0</v>
+      </c>
+      <c r="F33" s="16">
         <v>56729</v>
       </c>
-      <c r="G33" s="24">
-        <v>0</v>
-      </c>
-      <c r="H33" s="24">
-        <v>0</v>
-      </c>
-      <c r="I33" s="24">
-        <v>0</v>
-      </c>
-      <c r="J33" s="24">
-        <v>0</v>
-      </c>
-      <c r="K33" s="24">
-        <v>0</v>
-      </c>
-      <c r="L33" s="24">
-        <v>0</v>
-      </c>
-      <c r="M33" s="24">
+      <c r="G33" s="16">
+        <v>0</v>
+      </c>
+      <c r="H33" s="16">
+        <v>0</v>
+      </c>
+      <c r="I33" s="16">
+        <v>0</v>
+      </c>
+      <c r="J33" s="16">
+        <v>0</v>
+      </c>
+      <c r="K33" s="16">
+        <v>0</v>
+      </c>
+      <c r="L33" s="16">
+        <v>0</v>
+      </c>
+      <c r="M33" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="24">
+      <c r="B34" s="16">
         <v>58749816.870000005</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="16">
         <v>47511343.879999988</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34" s="16">
         <v>27290143.419999991</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="16">
         <v>37414501.530000024</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="16">
         <v>19704545.889999989</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34" s="16">
         <v>27788667.419999998</v>
       </c>
-      <c r="H34" s="24">
+      <c r="H34" s="16">
         <v>29273532.81999997</v>
       </c>
-      <c r="I34" s="24">
+      <c r="I34" s="16">
         <v>37962513.25999999</v>
       </c>
-      <c r="J34" s="24">
+      <c r="J34" s="16">
         <v>77105333.149999902</v>
       </c>
-      <c r="K34" s="24">
+      <c r="K34" s="16">
         <v>31637573.590000022</v>
       </c>
-      <c r="L34" s="24">
+      <c r="L34" s="16">
         <v>21803615.020000003</v>
       </c>
-      <c r="M34" s="24">
+      <c r="M34" s="21">
         <v>27645086.780000001</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="24">
+      <c r="B35" s="16">
         <v>3082051.1100000008</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="16">
         <v>4446931.7499999991</v>
       </c>
-      <c r="D35" s="24">
+      <c r="D35" s="16">
         <v>3186012.7999999993</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="16">
         <v>2764467.36</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35" s="16">
         <v>3761536.61</v>
       </c>
-      <c r="G35" s="24">
+      <c r="G35" s="16">
         <v>2627733.19</v>
       </c>
-      <c r="H35" s="24">
+      <c r="H35" s="16">
         <v>1678672.1200000006</v>
       </c>
-      <c r="I35" s="24">
+      <c r="I35" s="16">
         <v>2581953.0900000003</v>
       </c>
-      <c r="J35" s="24">
+      <c r="J35" s="16">
         <v>2620449.2899999986</v>
       </c>
-      <c r="K35" s="24">
+      <c r="K35" s="16">
         <v>3301115.0099999993</v>
       </c>
-      <c r="L35" s="24">
+      <c r="L35" s="16">
         <v>2683866.4299999997</v>
       </c>
-      <c r="M35" s="24">
+      <c r="M35" s="21">
         <v>6106539.2300000023</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="24">
-        <v>0</v>
-      </c>
-      <c r="C36" s="24">
-        <v>0</v>
-      </c>
-      <c r="D36" s="24">
-        <v>0</v>
-      </c>
-      <c r="E36" s="24">
-        <v>0</v>
-      </c>
-      <c r="F36" s="24">
-        <v>0</v>
-      </c>
-      <c r="G36" s="24">
-        <v>0</v>
-      </c>
-      <c r="H36" s="24">
-        <v>0</v>
-      </c>
-      <c r="I36" s="24">
-        <v>0</v>
-      </c>
-      <c r="J36" s="24">
+      <c r="B36" s="16">
+        <v>0</v>
+      </c>
+      <c r="C36" s="16">
+        <v>0</v>
+      </c>
+      <c r="D36" s="16">
+        <v>0</v>
+      </c>
+      <c r="E36" s="16">
+        <v>0</v>
+      </c>
+      <c r="F36" s="16">
+        <v>0</v>
+      </c>
+      <c r="G36" s="16">
+        <v>0</v>
+      </c>
+      <c r="H36" s="16">
+        <v>0</v>
+      </c>
+      <c r="I36" s="16">
+        <v>0</v>
+      </c>
+      <c r="J36" s="16">
         <v>39704.89</v>
       </c>
-      <c r="K36" s="24">
-        <v>0</v>
-      </c>
-      <c r="L36" s="24">
-        <v>0</v>
-      </c>
-      <c r="M36" s="24">
+      <c r="K36" s="16">
+        <v>0</v>
+      </c>
+      <c r="L36" s="16">
+        <v>0</v>
+      </c>
+      <c r="M36" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="24">
-        <v>0</v>
-      </c>
-      <c r="C37" s="24">
-        <v>0</v>
-      </c>
-      <c r="D37" s="24">
+      <c r="B37" s="16">
+        <v>0</v>
+      </c>
+      <c r="C37" s="16">
+        <v>0</v>
+      </c>
+      <c r="D37" s="16">
         <v>29323.69</v>
       </c>
-      <c r="E37" s="24">
-        <v>0</v>
-      </c>
-      <c r="F37" s="24">
-        <v>0</v>
-      </c>
-      <c r="G37" s="24">
+      <c r="E37" s="16">
+        <v>0</v>
+      </c>
+      <c r="F37" s="16">
+        <v>0</v>
+      </c>
+      <c r="G37" s="16">
         <v>9176.19</v>
       </c>
-      <c r="H37" s="24">
-        <v>0</v>
-      </c>
-      <c r="I37" s="24">
-        <v>0</v>
-      </c>
-      <c r="J37" s="24">
-        <v>0</v>
-      </c>
-      <c r="K37" s="24">
-        <v>0</v>
-      </c>
-      <c r="L37" s="24">
-        <v>0</v>
-      </c>
-      <c r="M37" s="24">
+      <c r="H37" s="16">
+        <v>0</v>
+      </c>
+      <c r="I37" s="16">
+        <v>0</v>
+      </c>
+      <c r="J37" s="16">
+        <v>0</v>
+      </c>
+      <c r="K37" s="16">
+        <v>0</v>
+      </c>
+      <c r="L37" s="16">
+        <v>0</v>
+      </c>
+      <c r="M37" s="21">
         <v>3858.3300000000004</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="24">
+      <c r="B38" s="16">
         <v>78311609.449999988</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="16">
         <v>77968705.280000001</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D38" s="16">
         <v>74150969.320000008</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="16">
         <v>75549997.379999995</v>
       </c>
-      <c r="F38" s="24">
+      <c r="F38" s="16">
         <v>105147437.71999997</v>
       </c>
-      <c r="G38" s="24">
+      <c r="G38" s="16">
         <v>123128978.03999999</v>
       </c>
-      <c r="H38" s="24">
+      <c r="H38" s="16">
         <v>89234941.180000007</v>
       </c>
-      <c r="I38" s="24">
+      <c r="I38" s="16">
         <v>72645710.650000006</v>
       </c>
-      <c r="J38" s="24">
+      <c r="J38" s="16">
         <v>111691263.59999999</v>
       </c>
-      <c r="K38" s="24">
+      <c r="K38" s="16">
         <v>88194868.25</v>
       </c>
-      <c r="L38" s="24">
+      <c r="L38" s="16">
         <v>64228594.299999997</v>
       </c>
-      <c r="M38" s="24">
+      <c r="M38" s="21">
         <v>114478604.38000003</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="24">
+      <c r="B39" s="16">
         <v>724991.85</v>
       </c>
-      <c r="C39" s="24">
-        <v>0</v>
-      </c>
-      <c r="D39" s="24">
+      <c r="C39" s="16">
+        <v>0</v>
+      </c>
+      <c r="D39" s="16">
         <v>1236348.21</v>
       </c>
-      <c r="E39" s="24">
+      <c r="E39" s="16">
         <v>809901.45</v>
       </c>
-      <c r="F39" s="24">
+      <c r="F39" s="16">
         <v>726131.79</v>
       </c>
-      <c r="G39" s="24">
+      <c r="G39" s="16">
         <v>730957.85</v>
       </c>
-      <c r="H39" s="24">
+      <c r="H39" s="16">
         <v>743851.1399999999</v>
       </c>
-      <c r="I39" s="24">
-        <v>0</v>
-      </c>
-      <c r="J39" s="24">
+      <c r="I39" s="16">
+        <v>0</v>
+      </c>
+      <c r="J39" s="16">
         <v>714475.87</v>
       </c>
-      <c r="K39" s="24">
+      <c r="K39" s="16">
         <v>568649.67000000004</v>
       </c>
-      <c r="L39" s="24">
+      <c r="L39" s="16">
         <v>681500</v>
       </c>
-      <c r="M39" s="24">
+      <c r="M39" s="21">
         <v>2608299.5499999998</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="24">
+      <c r="B40" s="16">
         <v>9084.4599999999991</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C40" s="16">
         <v>26508.09</v>
       </c>
-      <c r="D40" s="24">
-        <v>0</v>
-      </c>
-      <c r="E40" s="24">
-        <v>0</v>
-      </c>
-      <c r="F40" s="24">
+      <c r="D40" s="16">
+        <v>0</v>
+      </c>
+      <c r="E40" s="16">
+        <v>0</v>
+      </c>
+      <c r="F40" s="16">
         <v>3803.39</v>
       </c>
-      <c r="G40" s="24">
-        <v>0</v>
-      </c>
-      <c r="H40" s="24">
-        <v>0</v>
-      </c>
-      <c r="I40" s="24">
+      <c r="G40" s="16">
+        <v>0</v>
+      </c>
+      <c r="H40" s="16">
+        <v>0</v>
+      </c>
+      <c r="I40" s="16">
         <v>4054.88</v>
       </c>
-      <c r="J40" s="24">
-        <v>0</v>
-      </c>
-      <c r="K40" s="24">
-        <v>0</v>
-      </c>
-      <c r="L40" s="24">
-        <v>0</v>
-      </c>
-      <c r="M40" s="24">
+      <c r="J40" s="16">
+        <v>0</v>
+      </c>
+      <c r="K40" s="16">
+        <v>0</v>
+      </c>
+      <c r="L40" s="16">
+        <v>0</v>
+      </c>
+      <c r="M40" s="21">
         <v>15578.85</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="24">
+      <c r="B41" s="16">
         <v>7797.48</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C41" s="16">
         <v>12522.82</v>
       </c>
-      <c r="D41" s="24">
+      <c r="D41" s="16">
         <v>7387.69</v>
       </c>
-      <c r="E41" s="24">
-        <v>0</v>
-      </c>
-      <c r="F41" s="24">
+      <c r="E41" s="16">
+        <v>0</v>
+      </c>
+      <c r="F41" s="16">
         <v>3724.32</v>
       </c>
-      <c r="G41" s="24">
-        <v>0</v>
-      </c>
-      <c r="H41" s="24">
-        <v>0</v>
-      </c>
-      <c r="I41" s="24">
+      <c r="G41" s="16">
+        <v>0</v>
+      </c>
+      <c r="H41" s="16">
+        <v>0</v>
+      </c>
+      <c r="I41" s="16">
         <v>19356.11</v>
       </c>
-      <c r="J41" s="24">
-        <v>0</v>
-      </c>
-      <c r="K41" s="24">
-        <v>0</v>
-      </c>
-      <c r="L41" s="24">
-        <v>0</v>
-      </c>
-      <c r="M41" s="24">
+      <c r="J41" s="16">
+        <v>0</v>
+      </c>
+      <c r="K41" s="16">
+        <v>0</v>
+      </c>
+      <c r="L41" s="16">
+        <v>0</v>
+      </c>
+      <c r="M41" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="24">
+      <c r="B42" s="16">
         <v>153261.34</v>
       </c>
-      <c r="C42" s="24">
-        <v>0</v>
-      </c>
-      <c r="D42" s="24">
-        <v>0</v>
-      </c>
-      <c r="E42" s="24">
-        <v>0</v>
-      </c>
-      <c r="F42" s="24">
-        <v>0</v>
-      </c>
-      <c r="G42" s="24">
+      <c r="C42" s="16">
+        <v>0</v>
+      </c>
+      <c r="D42" s="16">
+        <v>0</v>
+      </c>
+      <c r="E42" s="16">
+        <v>0</v>
+      </c>
+      <c r="F42" s="16">
+        <v>0</v>
+      </c>
+      <c r="G42" s="16">
         <v>862979.47</v>
       </c>
-      <c r="H42" s="24">
+      <c r="H42" s="16">
         <v>101551.79</v>
       </c>
-      <c r="I42" s="24">
+      <c r="I42" s="16">
         <v>2865551.89</v>
       </c>
-      <c r="J42" s="24">
+      <c r="J42" s="16">
         <v>4095547.93</v>
       </c>
-      <c r="K42" s="24">
-        <v>0</v>
-      </c>
-      <c r="L42" s="24">
+      <c r="K42" s="16">
+        <v>0</v>
+      </c>
+      <c r="L42" s="16">
         <v>6147</v>
       </c>
-      <c r="M42" s="24">
+      <c r="M42" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="24">
+      <c r="B43" s="16">
         <v>4581455.17</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43" s="16">
         <v>3113856.55</v>
       </c>
-      <c r="D43" s="24">
+      <c r="D43" s="16">
         <v>4978695.68</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E43" s="16">
         <v>5360498.3400000008</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F43" s="16">
         <v>4684561.0399999991</v>
       </c>
-      <c r="G43" s="24">
+      <c r="G43" s="16">
         <v>4883655.959999999</v>
       </c>
-      <c r="H43" s="24">
+      <c r="H43" s="16">
         <v>2062780.44</v>
       </c>
-      <c r="I43" s="24">
+      <c r="I43" s="16">
         <v>4493566.08</v>
       </c>
-      <c r="J43" s="24">
+      <c r="J43" s="16">
         <v>3569906.8500000006</v>
       </c>
-      <c r="K43" s="24">
+      <c r="K43" s="16">
         <v>3818689.88</v>
       </c>
-      <c r="L43" s="24">
+      <c r="L43" s="16">
         <v>3104928.5199999996</v>
       </c>
-      <c r="M43" s="24">
+      <c r="M43" s="21">
         <v>3188768.7199999997</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="24">
-        <v>0</v>
-      </c>
-      <c r="C44" s="24">
-        <v>0</v>
-      </c>
-      <c r="D44" s="24">
+      <c r="B44" s="16">
+        <v>0</v>
+      </c>
+      <c r="C44" s="16">
+        <v>0</v>
+      </c>
+      <c r="D44" s="16">
         <v>4123697.25</v>
       </c>
-      <c r="E44" s="24">
-        <v>0</v>
-      </c>
-      <c r="F44" s="24">
-        <v>0</v>
-      </c>
-      <c r="G44" s="24">
-        <v>0</v>
-      </c>
-      <c r="H44" s="24">
-        <v>0</v>
-      </c>
-      <c r="I44" s="24">
-        <v>0</v>
-      </c>
-      <c r="J44" s="24">
-        <v>0</v>
-      </c>
-      <c r="K44" s="24">
+      <c r="E44" s="16">
+        <v>0</v>
+      </c>
+      <c r="F44" s="16">
+        <v>0</v>
+      </c>
+      <c r="G44" s="16">
+        <v>0</v>
+      </c>
+      <c r="H44" s="16">
+        <v>0</v>
+      </c>
+      <c r="I44" s="16">
+        <v>0</v>
+      </c>
+      <c r="J44" s="16">
+        <v>0</v>
+      </c>
+      <c r="K44" s="16">
         <v>1430808.82</v>
       </c>
-      <c r="L44" s="24">
+      <c r="L44" s="16">
         <v>200779.75</v>
       </c>
-      <c r="M44" s="24">
+      <c r="M44" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="24">
+      <c r="B45" s="16">
         <v>12475088.08</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="16">
         <v>2582477.5299999998</v>
       </c>
-      <c r="D45" s="24">
+      <c r="D45" s="16">
         <v>3033302.4400000004</v>
       </c>
-      <c r="E45" s="24">
+      <c r="E45" s="16">
         <v>2355453.34</v>
       </c>
-      <c r="F45" s="24">
+      <c r="F45" s="16">
         <v>4533161.33</v>
       </c>
-      <c r="G45" s="24">
+      <c r="G45" s="16">
         <v>3628255.64</v>
       </c>
-      <c r="H45" s="24">
+      <c r="H45" s="16">
         <v>4512731.32</v>
       </c>
-      <c r="I45" s="24">
+      <c r="I45" s="16">
         <v>9069979.3599999994</v>
       </c>
-      <c r="J45" s="24">
+      <c r="J45" s="16">
         <v>1180151.6300000004</v>
       </c>
-      <c r="K45" s="24">
+      <c r="K45" s="16">
         <v>4605115.32</v>
       </c>
-      <c r="L45" s="24">
+      <c r="L45" s="16">
         <v>3343688.2</v>
       </c>
-      <c r="M45" s="24">
+      <c r="M45" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="24">
+      <c r="B46" s="16">
         <v>10758423.469999999</v>
       </c>
-      <c r="C46" s="24">
+      <c r="C46" s="16">
         <v>10891058.869999999</v>
       </c>
-      <c r="D46" s="24">
+      <c r="D46" s="16">
         <v>8701172.7199999988</v>
       </c>
-      <c r="E46" s="24">
+      <c r="E46" s="16">
         <v>11004853.240000002</v>
       </c>
-      <c r="F46" s="24">
+      <c r="F46" s="16">
         <v>9573780.3299999982</v>
       </c>
-      <c r="G46" s="24">
+      <c r="G46" s="16">
         <v>16427940.310000002</v>
       </c>
-      <c r="H46" s="24">
+      <c r="H46" s="16">
         <v>9309362.5100000016</v>
       </c>
-      <c r="I46" s="24">
+      <c r="I46" s="16">
         <v>8662844.7399999984</v>
       </c>
-      <c r="J46" s="24">
+      <c r="J46" s="16">
         <v>9358674.9999999981</v>
       </c>
-      <c r="K46" s="24">
+      <c r="K46" s="16">
         <v>11254871.800000001</v>
       </c>
-      <c r="L46" s="24">
+      <c r="L46" s="16">
         <v>11907689.890000001</v>
       </c>
-      <c r="M46" s="24">
+      <c r="M46" s="21">
         <v>13789898.670000004</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="24">
+      <c r="B47" s="16">
         <v>196032449.59000006</v>
       </c>
-      <c r="C47" s="24">
+      <c r="C47" s="16">
         <v>105656206.02999999</v>
       </c>
-      <c r="D47" s="24">
+      <c r="D47" s="16">
         <v>144762577.61000007</v>
       </c>
-      <c r="E47" s="24">
+      <c r="E47" s="16">
         <v>188139088.88999996</v>
       </c>
-      <c r="F47" s="24">
+      <c r="F47" s="16">
         <v>155560159.00000003</v>
       </c>
-      <c r="G47" s="24">
+      <c r="G47" s="16">
         <v>129836170.13000003</v>
       </c>
-      <c r="H47" s="24">
+      <c r="H47" s="16">
         <v>208627287.93999985</v>
       </c>
-      <c r="I47" s="24">
+      <c r="I47" s="16">
         <v>190641607.86999959</v>
       </c>
-      <c r="J47" s="24">
+      <c r="J47" s="16">
         <v>134449520.60999992</v>
       </c>
-      <c r="K47" s="24">
+      <c r="K47" s="16">
         <v>120669082.91000007</v>
       </c>
-      <c r="L47" s="24">
+      <c r="L47" s="16">
         <v>164233405.79000017</v>
       </c>
-      <c r="M47" s="24">
+      <c r="M47" s="21">
         <v>154754496.1500001</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="24">
+      <c r="B48" s="16">
         <v>4090873.83</v>
       </c>
-      <c r="C48" s="24">
+      <c r="C48" s="16">
         <v>13516165.529999997</v>
       </c>
-      <c r="D48" s="24">
+      <c r="D48" s="16">
         <v>46155899.969999999</v>
       </c>
-      <c r="E48" s="24">
+      <c r="E48" s="16">
         <v>51777381.339999996</v>
       </c>
-      <c r="F48" s="24">
+      <c r="F48" s="16">
         <v>13852139.540000001</v>
       </c>
-      <c r="G48" s="24">
+      <c r="G48" s="16">
         <v>6752794.04</v>
       </c>
-      <c r="H48" s="24">
+      <c r="H48" s="16">
         <v>48170188.390000001</v>
       </c>
-      <c r="I48" s="24">
+      <c r="I48" s="16">
         <v>15429726.130000003</v>
       </c>
-      <c r="J48" s="24">
+      <c r="J48" s="16">
         <v>16157291.720000003</v>
       </c>
-      <c r="K48" s="24">
+      <c r="K48" s="16">
         <v>22867127.609999999</v>
       </c>
-      <c r="L48" s="24">
+      <c r="L48" s="16">
         <v>38827902.38000001</v>
       </c>
-      <c r="M48" s="24">
+      <c r="M48" s="21">
         <v>8845264.25</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="24">
-        <v>0</v>
-      </c>
-      <c r="C49" s="24">
-        <v>0</v>
-      </c>
-      <c r="D49" s="24">
-        <v>0</v>
-      </c>
-      <c r="E49" s="24">
-        <v>0</v>
-      </c>
-      <c r="F49" s="24">
-        <v>0</v>
-      </c>
-      <c r="G49" s="24">
+      <c r="B49" s="16">
+        <v>0</v>
+      </c>
+      <c r="C49" s="16">
+        <v>0</v>
+      </c>
+      <c r="D49" s="16">
+        <v>0</v>
+      </c>
+      <c r="E49" s="16">
+        <v>0</v>
+      </c>
+      <c r="F49" s="16">
+        <v>0</v>
+      </c>
+      <c r="G49" s="16">
         <v>707873.36</v>
       </c>
-      <c r="H49" s="24">
-        <v>0</v>
-      </c>
-      <c r="I49" s="24">
-        <v>0</v>
-      </c>
-      <c r="J49" s="24">
-        <v>0</v>
-      </c>
-      <c r="K49" s="24">
-        <v>0</v>
-      </c>
-      <c r="L49" s="24">
-        <v>0</v>
-      </c>
-      <c r="M49" s="24">
+      <c r="H49" s="16">
+        <v>0</v>
+      </c>
+      <c r="I49" s="16">
+        <v>0</v>
+      </c>
+      <c r="J49" s="16">
+        <v>0</v>
+      </c>
+      <c r="K49" s="16">
+        <v>0</v>
+      </c>
+      <c r="L49" s="16">
+        <v>0</v>
+      </c>
+      <c r="M49" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="24">
+      <c r="B50" s="16">
         <v>1401741.61</v>
       </c>
-      <c r="C50" s="24">
+      <c r="C50" s="16">
         <v>812945.9</v>
       </c>
-      <c r="D50" s="24">
+      <c r="D50" s="16">
         <v>1223082.1100000001</v>
       </c>
-      <c r="E50" s="24">
+      <c r="E50" s="16">
         <v>909131.92</v>
       </c>
-      <c r="F50" s="24">
+      <c r="F50" s="16">
         <v>7911804.4300000006</v>
       </c>
-      <c r="G50" s="24">
+      <c r="G50" s="16">
         <v>1073002.3099999998</v>
       </c>
-      <c r="H50" s="24">
+      <c r="H50" s="16">
         <v>1809242.7100000004</v>
       </c>
-      <c r="I50" s="24">
+      <c r="I50" s="16">
         <v>3641375.3000000003</v>
       </c>
-      <c r="J50" s="24">
+      <c r="J50" s="16">
         <v>1851348.2000000004</v>
       </c>
-      <c r="K50" s="24">
+      <c r="K50" s="16">
         <v>2009386.35</v>
       </c>
-      <c r="L50" s="24">
+      <c r="L50" s="16">
         <v>808272.5199999999</v>
       </c>
-      <c r="M50" s="24">
+      <c r="M50" s="21">
         <v>340900.83999999997</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="24">
+      <c r="B51" s="16">
         <v>224931745.41</v>
       </c>
-      <c r="C51" s="24">
+      <c r="C51" s="16">
         <v>179668677.36000004</v>
       </c>
-      <c r="D51" s="24">
+      <c r="D51" s="16">
         <v>239034688.24000004</v>
       </c>
-      <c r="E51" s="24">
+      <c r="E51" s="16">
         <v>244456188.55000004</v>
       </c>
-      <c r="F51" s="24">
+      <c r="F51" s="16">
         <v>225527120.12999997</v>
       </c>
-      <c r="G51" s="24">
+      <c r="G51" s="16">
         <v>266603438.81000003</v>
       </c>
-      <c r="H51" s="24">
+      <c r="H51" s="16">
         <v>283044125.06</v>
       </c>
-      <c r="I51" s="24">
+      <c r="I51" s="16">
         <v>318828388.72000003</v>
       </c>
-      <c r="J51" s="24">
+      <c r="J51" s="16">
         <v>354943512.33999997</v>
       </c>
-      <c r="K51" s="24">
+      <c r="K51" s="16">
         <v>335559422.22000009</v>
       </c>
-      <c r="L51" s="24">
+      <c r="L51" s="16">
         <v>236837194.41999996</v>
       </c>
-      <c r="M51" s="24">
+      <c r="M51" s="21">
         <v>276914583.58999997</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="24">
+      <c r="B52" s="16">
         <v>1340084368.8500042</v>
       </c>
-      <c r="C52" s="24">
+      <c r="C52" s="16">
         <v>1391780316.3099959</v>
       </c>
-      <c r="D52" s="24">
+      <c r="D52" s="16">
         <v>1463141981.7900023</v>
       </c>
-      <c r="E52" s="24">
+      <c r="E52" s="16">
         <v>1236627229.0300024</v>
       </c>
-      <c r="F52" s="24">
+      <c r="F52" s="16">
         <v>1349859134.8999979</v>
       </c>
-      <c r="G52" s="24">
+      <c r="G52" s="16">
         <v>1429831486.3500006</v>
       </c>
-      <c r="H52" s="24">
+      <c r="H52" s="16">
         <v>1446710511.4000053</v>
       </c>
-      <c r="I52" s="24">
+      <c r="I52" s="16">
         <v>1710826172.9700046</v>
       </c>
-      <c r="J52" s="24">
+      <c r="J52" s="16">
         <v>1265631551.4299986</v>
       </c>
-      <c r="K52" s="24">
+      <c r="K52" s="16">
         <v>1532183862.3900082</v>
       </c>
-      <c r="L52" s="24">
+      <c r="L52" s="16">
         <v>1573401470.0200088</v>
       </c>
-      <c r="M52" s="24">
+      <c r="M52" s="21">
         <v>1551835199.5099921</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="24">
+      <c r="B53" s="16">
         <v>35152.35</v>
       </c>
-      <c r="C53" s="24">
+      <c r="C53" s="16">
         <v>1123363.58</v>
       </c>
-      <c r="D53" s="24">
-        <v>0</v>
-      </c>
-      <c r="E53" s="24">
-        <v>0</v>
-      </c>
-      <c r="F53" s="24">
-        <v>0</v>
-      </c>
-      <c r="G53" s="24">
-        <v>0</v>
-      </c>
-      <c r="H53" s="24">
-        <v>0</v>
-      </c>
-      <c r="I53" s="24">
-        <v>0</v>
-      </c>
-      <c r="J53" s="24">
-        <v>0</v>
-      </c>
-      <c r="K53" s="24">
-        <v>0</v>
-      </c>
-      <c r="L53" s="24">
-        <v>0</v>
-      </c>
-      <c r="M53" s="24">
+      <c r="D53" s="16">
+        <v>0</v>
+      </c>
+      <c r="E53" s="16">
+        <v>0</v>
+      </c>
+      <c r="F53" s="16">
+        <v>0</v>
+      </c>
+      <c r="G53" s="16">
+        <v>0</v>
+      </c>
+      <c r="H53" s="16">
+        <v>0</v>
+      </c>
+      <c r="I53" s="16">
+        <v>0</v>
+      </c>
+      <c r="J53" s="16">
+        <v>0</v>
+      </c>
+      <c r="K53" s="16">
+        <v>0</v>
+      </c>
+      <c r="L53" s="16">
+        <v>0</v>
+      </c>
+      <c r="M53" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="24">
+      <c r="B54" s="16">
         <v>300000</v>
       </c>
-      <c r="C54" s="24">
+      <c r="C54" s="16">
         <v>18260.5</v>
       </c>
-      <c r="D54" s="24">
+      <c r="D54" s="16">
         <v>18260.5</v>
       </c>
-      <c r="E54" s="24">
-        <v>0</v>
-      </c>
-      <c r="F54" s="24">
+      <c r="E54" s="16">
+        <v>0</v>
+      </c>
+      <c r="F54" s="16">
         <v>36664.44</v>
       </c>
-      <c r="G54" s="24">
+      <c r="G54" s="16">
         <v>18400</v>
       </c>
-      <c r="H54" s="24">
-        <v>0</v>
-      </c>
-      <c r="I54" s="24">
+      <c r="H54" s="16">
+        <v>0</v>
+      </c>
+      <c r="I54" s="16">
         <v>58667.51</v>
       </c>
-      <c r="J54" s="24">
+      <c r="J54" s="16">
         <v>156504.9</v>
       </c>
-      <c r="K54" s="24">
-        <v>0</v>
-      </c>
-      <c r="L54" s="24">
+      <c r="K54" s="16">
+        <v>0</v>
+      </c>
+      <c r="L54" s="16">
         <v>59626.8</v>
       </c>
-      <c r="M54" s="24">
+      <c r="M54" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="24">
+      <c r="B55" s="16">
         <v>170269134.3999998</v>
       </c>
-      <c r="C55" s="24">
+      <c r="C55" s="16">
         <v>119324448.47</v>
       </c>
-      <c r="D55" s="24">
+      <c r="D55" s="16">
         <v>209572944.07999998</v>
       </c>
-      <c r="E55" s="24">
+      <c r="E55" s="16">
         <v>176514974.74999985</v>
       </c>
-      <c r="F55" s="24">
+      <c r="F55" s="16">
         <v>252764724.98999992</v>
       </c>
-      <c r="G55" s="24">
+      <c r="G55" s="16">
         <v>244427347.75999987</v>
       </c>
-      <c r="H55" s="24">
+      <c r="H55" s="16">
         <v>221374480.98999971</v>
       </c>
-      <c r="I55" s="24">
+      <c r="I55" s="16">
         <v>297289095.79000008</v>
       </c>
-      <c r="J55" s="24">
+      <c r="J55" s="16">
         <v>251194742.30999938</v>
       </c>
-      <c r="K55" s="24">
+      <c r="K55" s="16">
         <v>276237106.41000009</v>
       </c>
-      <c r="L55" s="24">
+      <c r="L55" s="16">
         <v>230781044.62999976</v>
       </c>
-      <c r="M55" s="24">
+      <c r="M55" s="21">
         <v>321054276.77999997</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="24">
+      <c r="B56" s="16">
         <v>29839430.189999998</v>
       </c>
-      <c r="C56" s="24">
+      <c r="C56" s="16">
         <v>26682968.559999999</v>
       </c>
-      <c r="D56" s="24">
+      <c r="D56" s="16">
         <v>47861861.769999996</v>
       </c>
-      <c r="E56" s="24">
+      <c r="E56" s="16">
         <v>33857209.950000003</v>
       </c>
-      <c r="F56" s="24">
+      <c r="F56" s="16">
         <v>6019308.9799999995</v>
       </c>
-      <c r="G56" s="24">
+      <c r="G56" s="16">
         <v>7678147.1299999999</v>
       </c>
-      <c r="H56" s="24">
+      <c r="H56" s="16">
         <v>1400815.56</v>
       </c>
-      <c r="I56" s="24">
+      <c r="I56" s="16">
         <v>840961.43</v>
       </c>
-      <c r="J56" s="24">
+      <c r="J56" s="16">
         <v>174935.62</v>
       </c>
-      <c r="K56" s="24">
+      <c r="K56" s="16">
         <v>19165500.280000001</v>
       </c>
-      <c r="L56" s="24">
+      <c r="L56" s="16">
         <v>649126.55000000005</v>
       </c>
-      <c r="M56" s="24">
+      <c r="M56" s="21">
         <v>191630.72999999998</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="24">
+      <c r="B57" s="16">
         <v>10942494.9</v>
       </c>
-      <c r="C57" s="24">
+      <c r="C57" s="16">
         <v>11334104.299999999</v>
       </c>
-      <c r="D57" s="24">
+      <c r="D57" s="16">
         <v>11918779.48</v>
       </c>
-      <c r="E57" s="24">
+      <c r="E57" s="16">
         <v>8432715.3200000003</v>
       </c>
-      <c r="F57" s="24">
+      <c r="F57" s="16">
         <v>12586272.539999999</v>
       </c>
-      <c r="G57" s="24">
+      <c r="G57" s="16">
         <v>7432285.4000000004</v>
       </c>
-      <c r="H57" s="24">
+      <c r="H57" s="16">
         <v>12069876.129999999</v>
       </c>
-      <c r="I57" s="24">
+      <c r="I57" s="16">
         <v>9412456.3499999978</v>
       </c>
-      <c r="J57" s="24">
+      <c r="J57" s="16">
         <v>5432867.1500000004</v>
       </c>
-      <c r="K57" s="24">
+      <c r="K57" s="16">
         <v>11263765.470000001</v>
       </c>
-      <c r="L57" s="24">
+      <c r="L57" s="16">
         <v>21388344.32</v>
       </c>
-      <c r="M57" s="24">
+      <c r="M57" s="21">
         <v>8065730.6699999999</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B58" s="24">
-        <v>0</v>
-      </c>
-      <c r="C58" s="24">
-        <v>0</v>
-      </c>
-      <c r="D58" s="24">
-        <v>0</v>
-      </c>
-      <c r="E58" s="24">
+      <c r="B58" s="16">
+        <v>0</v>
+      </c>
+      <c r="C58" s="16">
+        <v>0</v>
+      </c>
+      <c r="D58" s="16">
+        <v>0</v>
+      </c>
+      <c r="E58" s="16">
         <v>75139.86</v>
       </c>
-      <c r="F58" s="24">
-        <v>0</v>
-      </c>
-      <c r="G58" s="24">
-        <v>0</v>
-      </c>
-      <c r="H58" s="24">
-        <v>0</v>
-      </c>
-      <c r="I58" s="24">
-        <v>0</v>
-      </c>
-      <c r="J58" s="24">
-        <v>0</v>
-      </c>
-      <c r="K58" s="24">
-        <v>0</v>
-      </c>
-      <c r="L58" s="24">
-        <v>0</v>
-      </c>
-      <c r="M58" s="24">
+      <c r="F58" s="16">
+        <v>0</v>
+      </c>
+      <c r="G58" s="16">
+        <v>0</v>
+      </c>
+      <c r="H58" s="16">
+        <v>0</v>
+      </c>
+      <c r="I58" s="16">
+        <v>0</v>
+      </c>
+      <c r="J58" s="16">
+        <v>0</v>
+      </c>
+      <c r="K58" s="16">
+        <v>0</v>
+      </c>
+      <c r="L58" s="16">
+        <v>0</v>
+      </c>
+      <c r="M58" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="24">
+      <c r="B59" s="16">
         <v>880269686.91000235</v>
       </c>
-      <c r="C59" s="24">
+      <c r="C59" s="16">
         <v>782929539.81000149</v>
       </c>
-      <c r="D59" s="24">
+      <c r="D59" s="16">
         <v>984892768.0500015</v>
       </c>
-      <c r="E59" s="24">
+      <c r="E59" s="16">
         <v>846061899.09000087</v>
       </c>
-      <c r="F59" s="24">
+      <c r="F59" s="16">
         <v>870017272.2400018</v>
       </c>
-      <c r="G59" s="24">
+      <c r="G59" s="16">
         <v>838426406.38000071</v>
       </c>
-      <c r="H59" s="24">
+      <c r="H59" s="16">
         <v>986489601.89999747</v>
       </c>
-      <c r="I59" s="24">
+      <c r="I59" s="16">
         <v>1053100482.8400017</v>
       </c>
-      <c r="J59" s="24">
+      <c r="J59" s="16">
         <v>1117345443.9100006</v>
       </c>
-      <c r="K59" s="24">
+      <c r="K59" s="16">
         <v>927594449.04999673</v>
       </c>
-      <c r="L59" s="24">
+      <c r="L59" s="16">
         <v>948756880.02999854</v>
       </c>
-      <c r="M59" s="24">
+      <c r="M59" s="21">
         <v>1001320572.9599993</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B60" s="24">
+      <c r="B60" s="16">
         <v>25722939.27</v>
       </c>
-      <c r="C60" s="24">
+      <c r="C60" s="16">
         <v>6920774.4400000004</v>
       </c>
-      <c r="D60" s="24">
+      <c r="D60" s="16">
         <v>13658946.91</v>
       </c>
-      <c r="E60" s="24">
+      <c r="E60" s="16">
         <v>20114119.59</v>
       </c>
-      <c r="F60" s="24">
+      <c r="F60" s="16">
         <v>23032891.909999996</v>
       </c>
-      <c r="G60" s="24">
+      <c r="G60" s="16">
         <v>17000586.370000001</v>
       </c>
-      <c r="H60" s="24">
+      <c r="H60" s="16">
         <v>19833366.359999999</v>
       </c>
-      <c r="I60" s="24">
+      <c r="I60" s="16">
         <v>18046357.27</v>
       </c>
-      <c r="J60" s="24">
+      <c r="J60" s="16">
         <v>15173939.25</v>
       </c>
-      <c r="K60" s="24">
+      <c r="K60" s="16">
         <v>24811220.699999999</v>
       </c>
-      <c r="L60" s="24">
+      <c r="L60" s="16">
         <v>18482771.870000001</v>
       </c>
-      <c r="M60" s="24">
+      <c r="M60" s="21">
         <v>17790552.690000001</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" s="23" t="s">
+      <c r="A61" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B61" s="24">
+      <c r="B61" s="28">
         <v>267259627.30000001</v>
       </c>
-      <c r="C61" s="24">
+      <c r="C61" s="28">
         <v>311647925.19999999</v>
       </c>
-      <c r="D61" s="24">
+      <c r="D61" s="28">
         <v>343194031.19999999</v>
       </c>
-      <c r="E61" s="24">
+      <c r="E61" s="28">
         <v>305291621.39999998</v>
       </c>
-      <c r="F61" s="24">
+      <c r="F61" s="28">
         <v>335228421.10000002</v>
       </c>
-      <c r="G61" s="24">
+      <c r="G61" s="28">
         <v>266705108.5</v>
       </c>
-      <c r="H61" s="24">
+      <c r="H61" s="28">
         <v>304774516</v>
       </c>
-      <c r="I61" s="24">
+      <c r="I61" s="28">
         <v>393988367.5</v>
       </c>
-      <c r="J61" s="24">
+      <c r="J61" s="28">
         <v>394159085.5</v>
       </c>
-      <c r="K61" s="24">
+      <c r="K61" s="28">
         <v>333842677.19999999</v>
       </c>
-      <c r="L61" s="24">
+      <c r="L61" s="28">
         <v>390841294</v>
       </c>
-      <c r="M61" s="24">
+      <c r="M61" s="29">
         <v>435718216.60000002</v>
       </c>
     </row>
@@ -6123,5 +6645,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>